--- a/SlotData.xlsx
+++ b/SlotData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\parkj\Desktop\Current Project\Study_DataBase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A55FE8A-2062-490E-9B18-E7B2D43E5DB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{278DFE1C-B1BF-442D-B81E-900B9B95F1C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -405,10 +405,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -416,7 +416,7 @@
     <col min="2" max="2" width="14.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -432,8 +432,11 @@
       <c r="E1" t="b">
         <v>0</v>
       </c>
+      <c r="F1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -449,8 +452,11 @@
       <c r="E2" t="b">
         <v>0</v>
       </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -466,8 +472,11 @@
       <c r="E3" t="b">
         <v>0</v>
       </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -483,8 +492,11 @@
       <c r="E4" t="b">
         <v>0</v>
       </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -500,8 +512,11 @@
       <c r="E5" t="b">
         <v>0</v>
       </c>
+      <c r="F5">
+        <v>4</v>
+      </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -516,6 +531,9 @@
       </c>
       <c r="E6" t="b">
         <v>0</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
